--- a/src/main/resources/templates/dbfound_export.xlsx
+++ b/src/main/resources/templates/dbfound_export.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="25050" windowHeight="8580"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -892,12 +892,6 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <mruColors>
-      <color rgb="00C0C0C0"/>
-      <color rgb="00000000"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1172,17 +1166,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.41904761904762" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.2666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.8095238095238" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.8761904761905" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6571428571429" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>